--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/02.TraBH/TBH_NamAnh_110625.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/02.TraBH/TBH_NamAnh_110625.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang6\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5826BC-85BB-4CC1-84F6-A1019D281823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC359C-725F-4F0E-9BDA-95DE0E6A5FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,6 +516,42 @@
     <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,42 +583,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,7 +951,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -971,77 +971,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="37" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="40" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="26"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -1049,12 +1049,12 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="26"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -1062,12 +1062,12 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="26"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -1075,12 +1075,12 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="26"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1121,10 +1121,10 @@
       <c r="A11" s="27">
         <v>1</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="29"/>
@@ -1147,10 +1147,10 @@
       <c r="A12" s="27">
         <v>2</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="29"/>
@@ -1176,7 +1176,7 @@
       <c r="B13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="33">
         <v>2002202300036</v>
       </c>
       <c r="D13" s="29"/>
@@ -1197,7 +1197,7 @@
       <c r="A14" s="27">
         <v>4</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -1223,7 +1223,7 @@
       <c r="A15" s="27">
         <v>5</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="32" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="27" t="s">
@@ -1247,17 +1247,17 @@
       <c r="A16" s="27">
         <v>6</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="36" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="27" t="s">
         <v>43</v>
       </c>
@@ -1288,26 +1288,26 @@
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -1354,19 +1354,19 @@
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -1380,12 +1380,17 @@
       <c r="I25" s="20"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
     </row>
     <row r="66" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="B27:C27"/>
@@ -1397,11 +1402,6 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
